--- a/Self Assessment Form - IUM.xlsx
+++ b/Self Assessment Form - IUM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/Teaching/Teaching Torino/IUM+TWEB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e.munafo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD8A6C0D-94D4-4B0D-96C6-E4C25C2EF626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FC901A-1EC2-574B-803C-1B15B6D31B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="38180" windowHeight="19720" xr2:uid="{9384817B-0988-A24F-9D66-74DAD74AC274}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{9384817B-0988-A24F-9D66-74DAD74AC274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Github repo URL(s)</t>
   </si>
   <si>
-    <t>https://github.com/clark1492/IUM_TWEB_Notebook</t>
-  </si>
-  <si>
     <t>Hav you given access to the lecturer and lab assistant (Giulia)?</t>
   </si>
   <si>
@@ -213,13 +210,16 @@
   </si>
   <si>
     <t xml:space="preserve">Percentage: do you think that all members shohave done an equal amount of work? If so, write 33.3% on this row </t>
+  </si>
+  <si>
+    <t>https://github.com/clark1492/IUM_TWEB_Notebook https://github.com/clark1492/Esposito</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -517,6 +517,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -524,16 +527,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Default 1" xfId="1" xr:uid="{4CFB9B37-B9E9-0348-B0C6-CB853B61E7A3}"/>
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,9 +549,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -589,7 +589,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -695,7 +695,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -837,7 +837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -848,35 +848,35 @@
   <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.100000000000001"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" style="30" customWidth="1"/>
     <col min="3" max="3" width="55.5" customWidth="1"/>
     <col min="4" max="4" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="139.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="37" customFormat="1" ht="95.1" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:5" s="37" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" s="37" customFormat="1" ht="65.099999999999994" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" s="37" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="18">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -895,438 +895,438 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="26"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="18.95">
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="27"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="18.95">
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="27"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="33">
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:5" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" ht="120">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="13" customFormat="1">
-      <c r="A13" s="17" t="s">
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" ht="108" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" ht="108">
-      <c r="B14" s="29" t="s">
-        <v>18</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36">
+    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="54">
-      <c r="B16" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="54">
-      <c r="B21" s="36" t="s">
-        <v>22</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54">
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="79.5">
+    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="36">
+    <row r="26" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B26" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="36">
+    <row r="27" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18">
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18">
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="36">
+    <row r="36" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18">
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="54">
+    <row r="38" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="47.25">
+    <row r="39" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="B39" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="36">
+    <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="54">
+    <row r="43" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="B43" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18">
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18">
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="54">
+    <row r="46" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18">
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18">
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="174">
+    <row r="49" spans="1:4" ht="198" x14ac:dyDescent="0.25">
       <c r="B49" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:4" ht="33">
+    <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="B51" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="36">
+    <row r="54" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18">
+    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B55" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18">
+    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B56" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="142.5">
+    <row r="57" spans="1:4" ht="162" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="18" t="s">
+    <row r="62" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="B62" s="30" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="54">
-      <c r="B62" s="30" t="s">
-        <v>50</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18">
+    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B63" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="63.75">
+    <row r="64" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="B64" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="54">
+    <row r="67" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
         <v>54</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.95">
+    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
     </row>
-    <row r="70" spans="1:4" ht="15.95">
+    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="34" t="s">
         <v>4</v>
       </c>
@@ -1337,41 +1337,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="48.95">
+    <row r="71" spans="1:4" ht="49" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" ht="81">
+    <row r="72" spans="1:4" ht="81" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
     </row>
   </sheetData>
@@ -1391,7 +1391,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{6181D39E-F9D2-4C2C-9307-F7EDD098BEC6}"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://github.com/clark1492/IUM_TWEB_Notebook" xr:uid="{6181D39E-F9D2-4C2C-9307-F7EDD098BEC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
